--- a/data/results/result3.xlsx
+++ b/data/results/result3.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.000689]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[14.98855]</t>
+    <t>巴西粗粉=[8.687554]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[14.99998]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.42227]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.49786]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[38.89026]</t>
+    <t>过筛镍矿=[11.43404]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[8.678053]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[40.0]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.000688999999999</v>
+        <v>8.687554</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>14.98855</v>
+        <v>14.99998</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.42227</v>
+        <v>11.43404</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.49786</v>
+        <v>8.678053</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>38.89026</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.4561475719536</v>
+        <v>443.9233829366648</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.2859061412566</v>
+        <v>491.4342459289774</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.96510067408718</v>
+        <v>55.98229752777588</v>
       </c>
       <c r="D14">
-        <v>5.238211742321193</v>
+        <v>5.350710979140686</v>
       </c>
       <c r="E14">
-        <v>2.718692953285801</v>
+        <v>2.716675216378624</v>
       </c>
       <c r="F14">
-        <v>0.7383810411176376</v>
+        <v>0.7381722839842632</v>
       </c>
       <c r="G14">
-        <v>2.999221232926753</v>
+        <v>2.908291295011385</v>
       </c>
       <c r="H14">
-        <v>0.04886723488057564</v>
+        <v>0.04883054098954957</v>
       </c>
       <c r="I14">
-        <v>0.06680680316438672</v>
+        <v>0.06616389357671261</v>
       </c>
       <c r="J14">
-        <v>0.1799513194733832</v>
+        <v>0.1800000577870162</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8660652081635</v>
+        <v>529.7225068426956</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/results/result3.xlsx
+++ b/data/results/result3.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.687554]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[14.99998]</t>
+    <t>巴西粗粉=[9.975102]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[14.99944]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.43404]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[8.678053]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[40.0]</t>
+    <t>过筛镍矿=[8.028771]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[13.18405]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[37.61226]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.687554</v>
+        <v>9.975102</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>14.99998</v>
+        <v>14.99944</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.43404</v>
+        <v>8.028771000000001</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>8.678053</v>
+        <v>13.18405</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>40</v>
+        <v>37.61226</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.9233829366648</v>
+        <v>450.4034339795289</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.4342459289774</v>
+        <v>494.8531094104775</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.98229752777588</v>
+        <v>56.24454571987683</v>
       </c>
       <c r="D14">
-        <v>5.350710979140686</v>
+        <v>5.292979502722667</v>
       </c>
       <c r="E14">
-        <v>2.716675216378624</v>
+        <v>2.695010923499749</v>
       </c>
       <c r="F14">
-        <v>0.7381722839842632</v>
+        <v>0.7095724100312908</v>
       </c>
       <c r="G14">
-        <v>2.908291295011385</v>
+        <v>2.999605283203419</v>
       </c>
       <c r="H14">
-        <v>0.04883054098954957</v>
+        <v>0.04846282766719897</v>
       </c>
       <c r="I14">
-        <v>0.06616389357671261</v>
+        <v>0.06794113426566724</v>
       </c>
       <c r="J14">
-        <v>0.1800000577870162</v>
+        <v>0.1258506760994161</v>
       </c>
       <c r="M14" s="1">
-        <v>529.7225068426956</v>
+        <v>532.4435325558592</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>
